--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_21-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_21-26.xlsx
@@ -134,6 +134,12 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -200,12 +206,12 @@
     <t>4:2</t>
   </si>
   <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -227,9 +233,6 @@
     <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -380,6 +386,12 @@
     <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -425,9 +437,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>SYNOBAR SOAP 100 GM</t>
   </si>
   <si>
@@ -503,49 +512,61 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-29:0</t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>شامبو لوريال الفيفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>غيار غير لاصق 10*20</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>فازلين مستورد 50مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>لزق حبوب</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>-1:0</t>
   </si>
   <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>شامبو لوريال الفيفا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>غيار غير لاصق 10*20</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>فازلين مستورد 50مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>لزق حبوب</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
     <t>مناديل FINE</t>
-  </si>
-  <si>
-    <t>16:0</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -1661,17 +1682,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1679,7 +1700,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1687,7 +1708,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1705,7 +1726,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1713,7 +1734,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1731,7 +1752,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1757,7 +1778,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1783,7 +1804,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1809,7 +1830,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1817,7 +1838,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1835,7 +1856,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1861,7 +1882,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1869,7 +1890,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1887,7 +1908,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1895,7 +1916,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1913,7 +1934,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1921,7 +1942,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1939,7 +1960,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1965,7 +1986,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1973,7 +1994,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1991,7 +2012,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2017,7 +2038,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2025,7 +2046,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2043,7 +2064,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2051,17 +2072,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2069,7 +2090,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2077,13 +2098,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -2095,7 +2116,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2103,17 +2124,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2121,7 +2142,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2129,17 +2150,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>194</v>
+        <v>122.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2147,7 +2168,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2155,17 +2176,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2173,7 +2194,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2181,17 +2202,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2213,11 +2234,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2233,17 +2254,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2259,13 +2280,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2285,13 +2306,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2311,17 +2332,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2337,17 +2358,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2363,17 +2384,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2389,17 +2410,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2415,17 +2436,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2441,13 +2462,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2467,13 +2488,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2493,17 +2514,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2519,17 +2540,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2545,17 +2566,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2571,17 +2592,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2597,17 +2618,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2623,13 +2644,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2655,11 +2676,11 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2675,17 +2696,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>-290</v>
+        <v>84</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2701,13 +2722,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2727,13 +2748,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2753,13 +2774,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2779,13 +2800,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2805,13 +2826,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2831,17 +2852,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>27.329999999999998</v>
+        <v>145</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2849,7 +2870,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2857,17 +2878,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>274</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2883,17 +2904,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2909,17 +2930,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2935,17 +2956,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2961,17 +2982,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2987,17 +3008,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3013,17 +3034,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3039,17 +3060,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3065,17 +3086,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3083,7 +3104,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3091,17 +3112,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3117,17 +3138,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>76.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3143,17 +3164,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>270</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3169,17 +3190,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3187,7 +3208,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3195,17 +3216,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3221,17 +3242,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3247,17 +3268,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3279,11 +3300,11 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3299,13 +3320,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3325,17 +3346,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3351,17 +3372,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3383,11 +3404,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3409,11 +3430,11 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3429,17 +3450,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3455,17 +3476,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>6.5999999999999996</v>
+        <v>46</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3473,7 +3494,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3481,17 +3502,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3499,7 +3520,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3507,13 +3528,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>7.0499999999999998</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3525,7 +3546,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3533,13 +3554,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>47.670000000000002</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3551,7 +3572,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3559,17 +3580,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>89.099999999999994</v>
+        <v>28</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3585,17 +3606,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>27</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3611,17 +3632,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>-185</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3629,7 +3650,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3637,13 +3658,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>71</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3655,7 +3676,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3663,17 +3684,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3681,7 +3702,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3689,13 +3710,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>39</v>
+        <v>-185</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3707,7 +3728,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3715,17 +3736,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3741,17 +3762,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3773,7 +3794,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3793,17 +3814,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>23</v>
+        <v>45.5</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3819,17 +3840,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3851,11 +3872,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3871,17 +3892,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3897,17 +3918,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3923,13 +3944,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3949,13 +3970,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3975,13 +3996,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -4001,17 +4022,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4027,17 +4048,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4053,17 +4074,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4071,7 +4092,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4079,17 +4100,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4097,7 +4118,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4105,17 +4126,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4123,7 +4144,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4131,17 +4152,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4157,17 +4178,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4183,13 +4204,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4209,13 +4230,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4227,7 +4248,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4235,13 +4256,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4253,7 +4274,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4261,13 +4282,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4279,7 +4300,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4287,17 +4308,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>165</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4305,7 +4326,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4319,11 +4340,11 @@
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4331,7 +4352,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4339,13 +4360,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4357,7 +4378,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4365,17 +4386,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4391,17 +4412,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4409,7 +4430,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4417,13 +4438,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4435,7 +4456,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4449,7 +4470,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>68.599999999999994</v>
+        <v>150</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4461,7 +4482,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4469,17 +4490,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4495,13 +4516,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>44.549999999999997</v>
+        <v>10</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
@@ -4513,7 +4534,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4521,13 +4542,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>20</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
@@ -4539,7 +4560,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4547,17 +4568,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4573,51 +4594,181 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>70</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="6">
+        <v>134</v>
+      </c>
+      <c t="s" r="B137" s="7">
+        <v>180</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c t="s" r="H137" s="8">
+        <v>181</v>
+      </c>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="9">
+        <v>20</v>
+      </c>
+      <c r="M137" s="9"/>
+      <c t="s" r="N137" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" ht="25.5" customHeight="1">
+      <c r="A138" s="6">
+        <v>135</v>
+      </c>
+      <c t="s" r="B138" s="7">
+        <v>182</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c t="s" r="H138" s="8">
+        <v>183</v>
+      </c>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="9">
+        <v>24</v>
+      </c>
+      <c r="M138" s="9"/>
+      <c t="s" r="N138" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" ht="24.75" customHeight="1">
+      <c r="A139" s="6">
+        <v>136</v>
+      </c>
+      <c t="s" r="B139" s="7">
+        <v>184</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c t="s" r="H139" s="8">
+        <v>12</v>
+      </c>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="9">
+        <v>20</v>
+      </c>
+      <c r="M139" s="9"/>
+      <c t="s" r="N139" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" ht="25.5" customHeight="1">
+      <c r="A140" s="6">
+        <v>137</v>
+      </c>
+      <c t="s" r="B140" s="7">
+        <v>185</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c t="s" r="H140" s="8">
+        <v>183</v>
+      </c>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="9">
+        <v>30</v>
+      </c>
+      <c r="M140" s="9"/>
+      <c t="s" r="N140" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" ht="24.75" customHeight="1">
+      <c r="A141" s="6">
+        <v>138</v>
+      </c>
+      <c t="s" r="B141" s="7">
+        <v>186</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c t="s" r="H141" s="8">
+        <v>183</v>
+      </c>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="9">
+        <v>70</v>
+      </c>
+      <c r="M141" s="9"/>
+      <c t="s" r="N141" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="137" ht="26.25" customHeight="1">
-      <c r="K137" s="10">
-        <v>7231.0100000000002</v>
-      </c>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="11">
-        <v>180</v>
-      </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c t="s" r="F138" s="12">
-        <v>181</v>
-      </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="13"/>
-      <c t="s" r="I138" s="14">
-        <v>182</v>
-      </c>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
-      <c r="N138" s="14"/>
+    <row r="142" ht="26.25" customHeight="1">
+      <c r="K142" s="10">
+        <v>7537.21</v>
+      </c>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="11">
+        <v>187</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c t="s" r="F143" s="12">
+        <v>188</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="13"/>
+      <c t="s" r="I143" s="14">
+        <v>189</v>
+      </c>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="410">
+  <mergeCells count="425">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5024,10 +5175,25 @@
     <mergeCell ref="B136:G136"/>
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
-    <mergeCell ref="K137:N137"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="I138:N138"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="K142:N142"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="I143:N143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
